--- a/sim_GPS_tra/doc/result_analyze.xlsx
+++ b/sim_GPS_tra/doc/result_analyze.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="class_analyze" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$36:$A$140</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="137">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,96 +90,386 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>stay_point_2017-11-27.txt,stay_point_2017-11-29.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-12-01.txt,stay_point_2017-12-02.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-30.txt,stay_point_2017-11-30.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-29.txt,stay_point_2017-12-03.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-12-02.txt,stay_point_2017-12-02.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-12-01.txt,stay_point_2017-12-01.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-12-01.txt,stay_point_2017-12-03.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-28.txt,stay_point_2017-12-03.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-28.txt,stay_point_2017-12-01.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-12-02.txt,stay_point_2017-12-03.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-27.txt,stay_point_2017-11-27.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-29.txt,stay_point_2017-11-30.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-30.txt,stay_point_2017-12-03.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-30.txt,stay_point_2017-12-01.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-27.txt,stay_point_2017-11-30.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-28.txt,stay_point_2017-11-28.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-28.txt,stay_point_2017-11-29.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-29.txt,stay_point_2017-12-01.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-28.txt,stay_point_2017-11-30.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-27.txt,stay_point_2017-12-02.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-28.txt,stay_point_2017-12-02.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-30.txt,stay_point_2017-12-02.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-27.txt,stay_point_2017-12-01.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-29.txt,stay_point_2017-12-02.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-27.txt,stay_point_2017-12-03.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-27.txt,stay_point_2017-11-28.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-11-29.txt,stay_point_2017-11-29.txt</t>
-  </si>
-  <si>
-    <t>stay_point_2017-12-03.txt,stay_point_2017-12-03.txt</t>
+    <t>Top10 Analysis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01 ,2017-12-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-12-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01 ,2017-12-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29 ,2017-12-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-02 ,2017-12-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-12-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30 ,2017-12-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-12-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-02 ,2017-12-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-11-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-11-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-12-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29 ,2017-12-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-12-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-11-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30 ,2017-12-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29 ,2017-12-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01 ,2017-12-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-12-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-11-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-11-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-11-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-03 ,2017-12-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30 ,2017-12-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29 ,2017-11-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-11-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30 ,2017-11-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29 ,2017-11-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-12-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-12-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29 ,2017-12-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30 ,2017-12-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01 ,2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-02 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-03 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-12-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-12-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-12-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-12-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-12-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-12-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29 ,2017-12-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29 ,2017-12-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29 ,2017-12-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29 ,2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30 ,2017-12-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30 ,2017-12-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30 ,2017-12-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30 ,2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01 ,2017-12-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01 ,2017-12-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01 ,2017-12-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01 ,2017-12-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-02 ,2017-12-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-02 ,2017-12-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-02 ,2017-12-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-02 ,2017-12-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-02 ,2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-02 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-03 ,2017-12-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-03 ,2017-12-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-03 ,2017-12-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-03 ,2017-12-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-03 ,2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-03 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-04 ,2017-12-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-04 ,2017-12-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-04 ,2017-12-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-04 ,2017-12-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-04 ,2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-04 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-04 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-05 ,2017-12-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-05 ,2017-12-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-05 ,2017-12-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-05 ,2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-05 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-05 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-06 ,2017-12-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-06 ,2017-12-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-06 ,2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-06 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-06 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-07 ,2017-12-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-07 ,2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-07 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-07 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-08 ,2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-08 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-08 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-09 ,2017-12-09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-09 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-10 ,2017-12-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-12-04  2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-29  2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-29  2017-12-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-30  2017-12-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-30  2017-12-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-30  2017-12-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-27  2017-11-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-29  2017-11-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-12-01  2017-12-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-30  2017-12-01 </t>
+  </si>
+  <si>
+    <t>实际</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.0000000%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0000000%"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -227,7 +521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,8 +531,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -256,6 +568,2911 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>11.27 - 12.10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3478255356707449E-2"/>
+                  <c:y val="-0.32342437352444181"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0257643848803197E-3"/>
+                  <c:y val="-0.43440332522400521"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.661834523712767E-3"/>
+                  <c:y val="-0.39635339892701205"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8309172618563245E-3"/>
+                  <c:y val="-0.25683700250470382"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="57"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3816420832994562E-2"/>
+                  <c:y val="-0.32342437352444187"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="67"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9452490971827132E-2"/>
+                  <c:y val="-0.16171218676222091"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="76"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0853453173893619E-2"/>
+                  <c:y val="-0.47879490590383061"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$36:$A$140</c:f>
+              <c:strCache>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>2017-11-27 ,2017-11-27 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017-11-27 ,2017-11-28 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017-11-27 ,2017-11-29 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017-11-27 ,2017-11-30 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017-11-27 ,2017-12-01 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017-11-27 ,2017-12-02 </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017-11-27 ,2017-12-03 </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017-11-27 ,2017-12-04 </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017-11-27 ,2017-12-05 </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017-11-27 ,2017-12-06 </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017-11-27 ,2017-12-07 </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017-11-27 ,2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017-11-27 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017-11-27 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017-11-28 ,2017-11-28 </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017-11-28 ,2017-11-29 </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017-11-28 ,2017-11-30 </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017-11-28 ,2017-12-01 </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017-11-28 ,2017-12-02 </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017-11-28 ,2017-12-03 </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017-11-28 ,2017-12-04 </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017-11-28 ,2017-12-05 </c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017-11-28 ,2017-12-06 </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017-11-28 ,2017-12-07 </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017-11-28 ,2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2017-11-28 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2017-11-28 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017-11-29 ,2017-11-29 </c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017-11-29 ,2017-11-30 </c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2017-11-29 ,2017-12-01 </c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2017-11-29 ,2017-12-02 </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017-11-29 ,2017-12-03 </c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017-11-29 ,2017-12-04 </c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2017-11-29 ,2017-12-05 </c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017-11-29 ,2017-12-06 </c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017-11-29 ,2017-12-07 </c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2017-11-29 ,2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017-11-29 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2017-11-29 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2017-11-30 ,2017-11-30 </c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2017-11-30 ,2017-12-01 </c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2017-11-30 ,2017-12-02 </c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2017-11-30 ,2017-12-03 </c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2017-11-30 ,2017-12-04 </c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2017-11-30 ,2017-12-05 </c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2017-11-30 ,2017-12-06 </c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2017-11-30 ,2017-12-07 </c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017-11-30 ,2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2017-11-30 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2017-11-30 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2017-12-01 ,2017-12-01 </c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2017-12-01 ,2017-12-02 </c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2017-12-01 ,2017-12-03 </c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2017-12-01 ,2017-12-04 </c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2017-12-01 ,2017-12-05 </c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2017-12-01 ,2017-12-06 </c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2017-12-01 ,2017-12-07 </c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017-12-01 ,2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2017-12-01 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2017-12-01 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2017-12-02 ,2017-12-02 </c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2017-12-02 ,2017-12-03 </c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2017-12-02 ,2017-12-04 </c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2017-12-02 ,2017-12-05 </c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2017-12-02 ,2017-12-06 </c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2017-12-02 ,2017-12-07 </c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2017-12-02 ,2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2017-12-02 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2017-12-02 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2017-12-03 ,2017-12-03 </c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2017-12-03 ,2017-12-04 </c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2017-12-03 ,2017-12-05 </c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2017-12-03 ,2017-12-06 </c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2017-12-03 ,2017-12-07 </c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2017-12-03 ,2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2017-12-03 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2017-12-03 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2017-12-04 ,2017-12-04 </c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2017-12-04 ,2017-12-05 </c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2017-12-04 ,2017-12-06 </c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2017-12-04 ,2017-12-07 </c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2017-12-04 ,2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2017-12-04 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2017-12-04 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2017-12-05 ,2017-12-05 </c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2017-12-05 ,2017-12-06 </c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2017-12-05 ,2017-12-07 </c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2017-12-05 ,2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2017-12-05 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2017-12-05 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2017-12-06 ,2017-12-06 </c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2017-12-06 ,2017-12-07 </c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2017-12-06 ,2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2017-12-06 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2017-12-06 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2017-12-07 ,2017-12-07 </c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2017-12-07 ,2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2017-12-07 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2017-12-07 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2017-12-08 ,2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2017-12-08 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2017-12-08 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2017-12-09 ,2017-12-09 </c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2017-12-09 ,2017-12-10 </c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2017-12-10 ,2017-12-10 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$B$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>1.7993004692514799E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.38651594103144E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52476155445116E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3299003331315501E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8422200299844399E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4600240988702503E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.26653105764404E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2704733988861806E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7203261038872601E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5843998951851398E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3812416394968097E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4777299973653801E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5194914343768301E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7630648666462599E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3757055509909098E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1982206051780899E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5188945080723697E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.40273178945928E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6626047192547502E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2728475062549101E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.16146167735612E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4916746523709197E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.16840447439984E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.9982219584804893E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8313203860975502E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8565069254143597E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2215486395761999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3652548100064299E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2030597784661E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.8854763136609304E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2059966948153301E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5013108668291201E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3069779014940699E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.7690249623057592E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.8776392789359399E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.90521574230399E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8422811455341703E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0368815287410899E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.4240756730287199E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3210000380169999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6120402963269802E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.44019577625436E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.9712376230184397E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.06713053017524E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.8410256668477098E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0814849955541099E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3678250997676699E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.5885659955358398E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9917642218891699E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.2334774391335899E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.1936509143396901E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5288438126906998E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.61185384783811E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.7707843802669001E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2398339042317501E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.38716982217564E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.95326630897825E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.63954906618683E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3292014940440801E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.13412059171861E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.1086706960323796E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.4240756730287201E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8483480043817099E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.1357963082767398E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.2918947639729999E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1891665798077502E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.1694101576094002E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.6125072960536503E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8653651353138099E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.7223028668063301E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0085950411409101E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.62339278646159E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.2506195915364402E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1365264298592201E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.5196861934814802E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.29243634633648E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.6662976468958798E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.5369837310435699E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.5023766382725996E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.11709487265407E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.3551900732131999E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.9197303632874398E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.6662081008289902E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.33269134116059E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.6350962308112103E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.5878475632811002E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.44065510665511E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.1719718030337302E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.2920476494332299E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="410233400"/>
+        <c:axId val="410234968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="410233400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410234968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410234968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410233400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Top10 Sim</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$11:$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v> 2017-12-04  2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 2017-11-29  2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 2017-11-29  2017-12-04 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 2017-11-30  2017-12-08 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 2017-11-30  2017-12-04 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 2017-11-30  2017-12-05 </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 2017-11-27  2017-11-30 </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 2017-11-29  2017-11-30 </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 2017-12-01  2017-12-04 </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 2017-11-30  2017-12-01 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$11:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>442.74803057025201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>307.79776601998799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188.345208700764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>172.61428571428499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151.71216931216901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>143.14047619047599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135.557142857142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130.69947089946999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>124.237037037037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>118.753061224489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="410229088"/>
+        <c:axId val="410233008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="410229088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410233008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410233008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410229088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1685923</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -532,6 +3749,7 @@
     <col min="1" max="1" width="59.25" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
     <col min="6" max="6" width="6.75" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
@@ -575,7 +3793,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -610,7 +3828,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>2.4695342462299E-3</v>
@@ -642,7 +3860,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3">
         <v>2.7989627241574201E-3</v>
@@ -680,7 +3898,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
         <v>3.33359605349086E-3</v>
@@ -715,7 +3933,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>3.6191531493936602E-3</v>
@@ -747,7 +3965,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>4.0946623223067002E-3</v>
@@ -767,7 +3985,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3">
         <v>7.0760293588249404E-3</v>
@@ -793,7 +4011,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
         <v>9.6969906333337005E-3</v>
@@ -802,168 +4020,1374 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
         <v>1.10071567803943E-2</v>
       </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3">
         <v>1.8642641730271799E-2</v>
       </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11">
+        <v>442.74803057025201</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3">
         <v>2.1530148419686399E-2</v>
       </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12">
+        <v>307.79776601998799</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3">
         <v>2.6241960307870699E-2</v>
       </c>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13">
+        <v>188.345208700764</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3">
         <v>2.72405116001199E-2</v>
       </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14">
+        <v>172.61428571428499</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3">
         <v>2.7367722883481899E-2</v>
       </c>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15">
+        <v>151.71216931216901</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3">
         <v>3.4976813120671697E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="4">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16">
+        <v>143.14047619047599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3">
         <v>3.6381404948398401E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="5">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>135.557142857142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="3">
         <v>4.0230034853078002E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" s="4">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
+        <v>130.69947089946999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>4.0412888437144197E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" s="5">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19">
+        <v>124.237037037037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3">
         <v>4.1032479045954098E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" s="4">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20">
+        <v>118.753061224489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3">
         <v>4.4838963520743597E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3">
         <v>5.1464972388070802E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3">
         <v>5.2522712419548E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3">
         <v>5.6173483626793301E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3">
         <v>5.9599373566708497E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3">
         <v>6.4848402096531907E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3">
         <v>6.54108153929778E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3">
         <v>0.10522409458040601</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3">
         <v>0.14176449179341</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>1.7993004692514799E-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>9.2704733988861806E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>6.38651594103144E-3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37">
+        <v>6.16146167735612E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>1.52476155445116E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38">
+        <v>3.3069779014940699E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>2.3299003331315501E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39">
+        <v>2.06713053017524E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40">
+        <v>8.8422200299844399E-3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40">
+        <v>1.61185384783811E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>8.4600240988702503E-4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41">
+        <v>6.1086706960323796E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>1.26653105764404E-2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>4.1694101576094002E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>9.2704733988861806E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>1.7203261038872601E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>3.5843998951851398E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>8.3812416394968097E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>1.4777299973653801E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>1.5194914343768301E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50">
+        <v>1.7630648666462599E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51">
+        <v>7.3757055509909098E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>1.1982206051780899E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>8.5188945080723697E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>1.40273178945928E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55">
+        <v>2.6626047192547502E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>1.2728475062549101E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57">
+        <v>6.16146167735612E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>6.4916746523709197E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>1.16840447439984E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>9.9982219584804893E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>2.8313203860975502E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63">
+        <v>4.8565069254143597E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64">
+        <v>2.2215486395761999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65">
+        <v>1.3652548100064299E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66">
+        <v>1.2030597784661E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67">
+        <v>8.8854763136609304E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>3.2059966948153301E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>1.5013108668291201E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70">
+        <v>3.3069779014940699E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71">
+        <v>9.7690249623057592E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72">
+        <v>4.8776392789359399E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73">
+        <v>1.90521574230399E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75">
+        <v>3.8422811455341703E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76">
+        <v>2.0368815287410899E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>2.4240756730287199E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78">
+        <v>1.3210000380169999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79">
+        <v>2.6120402963269802E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80">
+        <v>2.44019577625436E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81">
+        <v>6.9712376230184397E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82">
+        <v>2.06713053017524E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83">
+        <v>2.8410256668477098E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84">
+        <v>3.0814849955541099E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86">
+        <v>1.3678250997676699E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87">
+        <v>9.5885659955358398E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89">
+        <v>1.9917642218891699E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90">
+        <v>1.2334774391335899E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91">
+        <v>4.1936509143396901E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92">
+        <v>6.5288438126906998E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93">
+        <v>1.61185384783811E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96">
+        <v>3.7707843802669001E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97">
+        <v>1.2398339042317501E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98">
+        <v>1.38716982217564E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>82</v>
+      </c>
+      <c r="B99">
+        <v>1.95326630897825E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100">
+        <v>2.63954906618683E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101">
+        <v>1.3292014940440801E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102">
+        <v>8.13412059171861E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103">
+        <v>6.1086706960323796E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104">
+        <v>2.4240756730287201E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105">
+        <v>1.8483480043817099E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>88</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108">
+        <v>4.1357963082767398E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>90</v>
+      </c>
+      <c r="B109">
+        <v>3.2918947639729999E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>91</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111">
+        <v>2.1891665798077502E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112">
+        <v>4.1694101576094002E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113">
+        <v>5.6125072960536503E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>94</v>
+      </c>
+      <c r="B114">
+        <v>1.8653651353138099E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>95</v>
+      </c>
+      <c r="B115">
+        <v>3.7223028668063301E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>96</v>
+      </c>
+      <c r="B116">
+        <v>1.0085950411409101E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>97</v>
+      </c>
+      <c r="B117">
+        <v>7.62339278646159E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>98</v>
+      </c>
+      <c r="B118">
+        <v>2.2506195915364402E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>100</v>
+      </c>
+      <c r="B120">
+        <v>2.1365264298592201E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>101</v>
+      </c>
+      <c r="B121">
+        <v>6.5196861934814802E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>102</v>
+      </c>
+      <c r="B122">
+        <v>1.29243634633648E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>103</v>
+      </c>
+      <c r="B123">
+        <v>1.6662976468958798E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>104</v>
+      </c>
+      <c r="B124">
+        <v>2.5369837310435699E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>105</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>106</v>
+      </c>
+      <c r="B126">
+        <v>9.5023766382725996E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127">
+        <v>1.11709487265407E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128">
+        <v>3.3551900732131999E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129">
+        <v>3.9197303632874398E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130">
+        <v>6.6662081008289902E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>111</v>
+      </c>
+      <c r="B131">
+        <v>9.33269134116059E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>112</v>
+      </c>
+      <c r="B132">
+        <v>8.6350962308112103E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>113</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>114</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>115</v>
+      </c>
+      <c r="B135">
+        <v>5.5878475632811002E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>116</v>
+      </c>
+      <c r="B136">
+        <v>1.44065510665511E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>118</v>
+      </c>
+      <c r="B138">
+        <v>2.1719718030337302E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>119</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>120</v>
+      </c>
+      <c r="B140">
+        <v>2.2920476494332299E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B29">
-    <sortCondition ref="B2:B29"/>
+  <sortState ref="A36:B140">
+    <sortCondition ref="A36:A140"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I15" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15">
+        <v>15</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I16" s="8"/>
+      <c r="J16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>18</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I17" s="8"/>
+      <c r="J17" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>21</v>
+      </c>
+      <c r="N17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I18" s="8"/>
+      <c r="J18" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="I13:J14"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
